--- a/S1-Excel/06 Data Cleaning.xlsx
+++ b/S1-Excel/06 Data Cleaning.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\010101 SHIVAM\01_PROGRAMMING\Data Analyst BootCamp\S1-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190398DB-7B39-4968-89AA-EBDA06F5C292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F16C90B-74E8-4F6A-9EB0-DD604DBA3C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Cleaning" sheetId="8" r:id="rId1"/>
+    <sheet name="Sample Data Set" sheetId="11" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,9 +25,428 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="138">
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Remove Duplicate Records</t>
+  </si>
+  <si>
+    <t>Identify and remove duplicate rows in your dataset.</t>
+  </si>
+  <si>
+    <t>1. Select the range of cells or the entire table.</t>
+  </si>
+  <si>
+    <t>2. Go to the "Data" tab.</t>
+  </si>
+  <si>
+    <t>3. Click "Remove Duplicates".</t>
+  </si>
+  <si>
+    <t>4. Select the columns to check for duplicates and click "OK".</t>
+  </si>
+  <si>
+    <t>Handle Missing Data</t>
+  </si>
+  <si>
+    <t>Fill in or remove missing values using various strategies.</t>
+  </si>
+  <si>
+    <t>1. Select the range of cells containing missing data.</t>
+  </si>
+  <si>
+    <t>2. Go to the "Home" tab.</t>
+  </si>
+  <si>
+    <t>3. Click "Find &amp; Select" &gt; "Go To Special".</t>
+  </si>
+  <si>
+    <t>4. Select "Blanks" and click "OK".</t>
+  </si>
+  <si>
+    <t>5. To fill with a specific value, type the value and press "Ctrl+Enter".</t>
+  </si>
+  <si>
+    <t>6. To remove rows with missing values, right-click the selected cells and choose "Delete Row".</t>
+  </si>
+  <si>
+    <t>Standardize Data Formats</t>
+  </si>
+  <si>
+    <t>Ensure consistent date formats, number formats, and text cases.</t>
+  </si>
+  <si>
+    <t>1. Select the range of cells to format.</t>
+  </si>
+  <si>
+    <t>3. Use the "Number" group to select the desired format (e.g., Date, Number).</t>
+  </si>
+  <si>
+    <t>4. For text case, use formulas like `=UPPER()`, `=LOWER()`, or `=PROPER()`.</t>
+  </si>
+  <si>
+    <t>Trim Spaces</t>
+  </si>
+  <si>
+    <t>Remove leading, trailing, and excessive spaces from text fields.</t>
+  </si>
+  <si>
+    <t>1. Insert a new column next to the column with spaces.</t>
+  </si>
+  <si>
+    <t>2. Use the formula `=TRIM(A1)` (adjust cell reference as needed).</t>
+  </si>
+  <si>
+    <t>3. Copy the formula down to apply to all cells.</t>
+  </si>
+  <si>
+    <t>4. Copy the trimmed text and paste it back over the original data as values.</t>
+  </si>
+  <si>
+    <t>5. Delete the helper column.</t>
+  </si>
+  <si>
+    <t>Correct Data Types</t>
+  </si>
+  <si>
+    <t>Ensure that all data columns have the correct data types.</t>
+  </si>
+  <si>
+    <t>1. Select the range of cells or column.</t>
+  </si>
+  <si>
+    <t>3. Use the "Number" group to select the correct data type (e.g., Date, Number).</t>
+  </si>
+  <si>
+    <t>Handle Outliers</t>
+  </si>
+  <si>
+    <t>Identify and manage outliers that may skew your analysis.</t>
+  </si>
+  <si>
+    <t>1. Identify outliers using statistical methods (e.g., IQR, z-scores).</t>
+  </si>
+  <si>
+    <t>2. Select the range of cells with potential outliers.</t>
+  </si>
+  <si>
+    <t>3. Use conditional formatting to highlight outliers.</t>
+  </si>
+  <si>
+    <t>4. Decide whether to remove, transform, or leave the outliers based on analysis needs.</t>
+  </si>
+  <si>
+    <t>Text to Columns</t>
+  </si>
+  <si>
+    <t>Split concatenated data into separate columns.</t>
+  </si>
+  <si>
+    <t>1. Select the column containing the concatenated data.</t>
+  </si>
+  <si>
+    <t>3. Click "Text to Columns".</t>
+  </si>
+  <si>
+    <t>4. Choose "Delimited" or "Fixed width" based on data structure and click "Next".</t>
+  </si>
+  <si>
+    <t>5. Choose the delimiter or set the field width and click "Next".</t>
+  </si>
+  <si>
+    <t>6. Click "Finish".</t>
+  </si>
+  <si>
+    <t>Merge Data</t>
+  </si>
+  <si>
+    <t>Combine data from multiple sources or worksheets into a single dataset.</t>
+  </si>
+  <si>
+    <t>1. Ensure data ranges are named or structured consistently.</t>
+  </si>
+  <si>
+    <t>3. Use "Consolidate" to merge data from different sheets.</t>
+  </si>
+  <si>
+    <t>4. Or use formulas like `=VLOOKUP()`, `=HLOOKUP()`, or `=INDEX(MATCH())` to combine data.</t>
+  </si>
+  <si>
+    <t>Find and Replace Errors</t>
+  </si>
+  <si>
+    <t>Correct obvious errors and inconsistencies using Find and Replace.</t>
+  </si>
+  <si>
+    <t>1. Press "Ctrl+H" to open the Find and Replace dialog.</t>
+  </si>
+  <si>
+    <t>2. Enter the error or inconsistency in the "Find what" box.</t>
+  </si>
+  <si>
+    <t>3. Enter the correct value in the "Replace with" box.</t>
+  </si>
+  <si>
+    <t>4. Click "Replace All" or "Replace" to correct the errors.</t>
+  </si>
+  <si>
+    <t>Remove Unnecessary Data</t>
+  </si>
+  <si>
+    <t>Delete irrelevant or redundant columns and rows.</t>
+  </si>
+  <si>
+    <t>1. Select the columns or rows to be removed.</t>
+  </si>
+  <si>
+    <t>2. Right-click and choose "Delete".</t>
+  </si>
+  <si>
+    <t>Fix Inconsistent Data</t>
+  </si>
+  <si>
+    <t>Standardize entries with slight variations.</t>
+  </si>
+  <si>
+    <t>1. Identify inconsistent entries using filters or conditional formatting.</t>
+  </si>
+  <si>
+    <t>2. Use Find and Replace (Ctrl+H) to standardize entries.</t>
+  </si>
+  <si>
+    <t>3. Or use formulas like `=UPPER()`, `=LOWER()`, `=PROPER()` to standardize text.</t>
+  </si>
+  <si>
+    <t>Validate Data</t>
+  </si>
+  <si>
+    <t>Ensure data integrity by setting up validation rules.</t>
+  </si>
+  <si>
+    <t>1. Select the range of cells for validation.</t>
+  </si>
+  <si>
+    <t>3. Click "Data Validation".</t>
+  </si>
+  <si>
+    <t>4. Set validation criteria (e.g., whole number, decimal, list).</t>
+  </si>
+  <si>
+    <t>5. Click "OK".</t>
+  </si>
+  <si>
+    <t>Remove Special Characters</t>
+  </si>
+  <si>
+    <t>Eliminate unwanted special characters from text fields.</t>
+  </si>
+  <si>
+    <t>1. Use the "Find and Replace" feature (Ctrl+H).</t>
+  </si>
+  <si>
+    <t>2. Enter the special character in the "Find what" box.</t>
+  </si>
+  <si>
+    <t>3. Leave the "Replace with" box empty.</t>
+  </si>
+  <si>
+    <t>4. Click "Replace All".</t>
+  </si>
+  <si>
+    <t>Reformat Dates</t>
+  </si>
+  <si>
+    <t>Ensure all dates are in a consistent format and correctly recognized by Excel.</t>
+  </si>
+  <si>
+    <t>1. Select the range of date cells.</t>
+  </si>
+  <si>
+    <t>2. Right-click and choose "Format Cells".</t>
+  </si>
+  <si>
+    <t>3. Select "Date" and choose the desired date format.</t>
+  </si>
+  <si>
+    <t>4. Click "OK".</t>
+  </si>
+  <si>
+    <t>Handle Errors</t>
+  </si>
+  <si>
+    <t>Identify and correct errors such as `#DIV/0!`, `#N/A`, `#VALUE!`.</t>
+  </si>
+  <si>
+    <t>1. Use conditional formatting to highlight cells with errors.</t>
+  </si>
+  <si>
+    <t>2. Use error-checking formulas like `=IFERROR()` or `=IFNA()` to manage errors.</t>
+  </si>
+  <si>
+    <t>3. Correct the underlying issues causing the errors if possible.</t>
+  </si>
+  <si>
+    <t>Sr. No.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Registration Date</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>john.doe@example.com</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Good employee</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>jane.smith@example.com</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Sam Brown</t>
+  </si>
+  <si>
+    <t>sambrown@example.com</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Excellent performance</t>
+  </si>
+  <si>
+    <t>Alice Johnson</t>
+  </si>
+  <si>
+    <t>alice.johnson@example,com</t>
+  </si>
+  <si>
+    <t>New york</t>
+  </si>
+  <si>
+    <t>Needs improvement</t>
+  </si>
+  <si>
+    <t>Bob White</t>
+  </si>
+  <si>
+    <t>bob.white@example.com</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>New joiner</t>
+  </si>
+  <si>
+    <t>Carol Lee</t>
+  </si>
+  <si>
+    <t>carol.lee@example.com</t>
+  </si>
+  <si>
+    <t>Los angeles</t>
+  </si>
+  <si>
+    <t>David Brown</t>
+  </si>
+  <si>
+    <t>davidbrown@example.com</t>
+  </si>
+  <si>
+    <t>chicago</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Emily Davis</t>
+  </si>
+  <si>
+    <t>emily.davis@examplecom</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Frank Harris</t>
+  </si>
+  <si>
+    <t>frank.harris@example.com</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>grace.kelly@example.com</t>
+  </si>
+  <si>
+    <t>Henry Walker</t>
+  </si>
+  <si>
+    <t>henry.walker@example.com</t>
+  </si>
+  <si>
+    <t>old data</t>
+  </si>
+  <si>
+    <t>Isabella Hall</t>
+  </si>
+  <si>
+    <t>isabella.hall@example.com</t>
+  </si>
+  <si>
+    <t>new york</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,16 +454,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -51,12 +485,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,12 +865,1014 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF51EEB1-C6F3-4F79-AFC8-0CA75FEF9D9C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60:B62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>4</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>5</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>6</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>7</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="9"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>8</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>9</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>10</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>11</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>12</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="9"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>13</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="9"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>14</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="9"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>15</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="9"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502F6470-D426-4158-BA6F-C8E99321914A}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="14">
+        <v>29</v>
+      </c>
+      <c r="E2" s="15">
+        <v>43862</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="14">
+        <v>60000</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15">
+        <v>43599</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="14">
+        <v>75000</v>
+      </c>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="14">
+        <v>45</v>
+      </c>
+      <c r="E4" s="15">
+        <v>43997</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="14">
+        <v>48000</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="14">
+        <v>31</v>
+      </c>
+      <c r="E5" s="15">
+        <v>43446</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="14">
+        <v>50000</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="14">
+        <v>28</v>
+      </c>
+      <c r="E6" s="15">
+        <v>42954</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="14">
+        <v>69000</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="14">
+        <v>22</v>
+      </c>
+      <c r="E7" s="15">
+        <v>43792</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="14">
+        <v>52000</v>
+      </c>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="14">
+        <v>35</v>
+      </c>
+      <c r="E8" s="15">
+        <v>44260</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="14">
+        <v>80000</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="14">
+        <v>40</v>
+      </c>
+      <c r="E9" s="15">
+        <v>43208</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="14">
+        <v>58000</v>
+      </c>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="14">
+        <v>23</v>
+      </c>
+      <c r="E10" s="15">
+        <v>43717</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="14">
+        <v>62000</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="14">
+        <v>37</v>
+      </c>
+      <c r="E11" s="15">
+        <v>43099</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="14">
+        <v>75000</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="14">
+        <v>44</v>
+      </c>
+      <c r="E12" s="15">
+        <v>42107</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="14">
+        <v>66000</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="14">
+        <v>25</v>
+      </c>
+      <c r="E13" s="15">
+        <v>42694</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="14">
+        <v>70000</v>
+      </c>
+      <c r="H13" s="14"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>